--- a/web/uploads/test.xlsx
+++ b/web/uploads/test.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14120" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="student.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,41 +21,41 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>presskanna</t>
-  </si>
-  <si>
-    <t>nopic</t>
-  </si>
-  <si>
-    <t>vare</t>
-  </si>
-  <si>
-    <t>bilde</t>
-  </si>
-  <si>
-    <t>beskrivelsen</t>
-  </si>
-  <si>
-    <t>categori</t>
-  </si>
-  <si>
-    <t>kjøkken</t>
-  </si>
-  <si>
-    <t>sommerkær</t>
-  </si>
-  <si>
-    <t>pioio.jpg</t>
-  </si>
-  <si>
-    <t>klær</t>
+    <t>qwerqwerqasdf</t>
+  </si>
+  <si>
+    <t>$2y$13$IP/.zPP9Y6ZxE6ydhpekB.JRpxLwwuDE3SHMN6r2fVl/xx6bril22</t>
+  </si>
+  <si>
+    <t>qwerqwerqwerrr</t>
+  </si>
+  <si>
+    <t>Aaag1dQZToGTkMkJJh215072JF3IWope</t>
+  </si>
+  <si>
+    <t>$2y$13$938GQ7ZkMR7E4K2ObS/doOgedVXNuhAmTfqBu4pNr9HZSxuPecrhK</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>88123g1234</t>
+  </si>
+  <si>
+    <t>220a331234</t>
+  </si>
+  <si>
+    <t>qdd1d24daer@gmail.com</t>
+  </si>
+  <si>
+    <t>l3lttt23wwdff4@GMAIL.COM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -67,14 +67,6 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,17 +89,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -437,56 +428,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="B1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="2:11">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1">
+        <v>10</v>
+      </c>
+      <c r="H1">
+        <v>10</v>
+      </c>
+      <c r="I1">
+        <v>10</v>
+      </c>
+      <c r="J1">
+        <v>123412</v>
+      </c>
+      <c r="K1">
+        <v>1234444</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>2147483647</v>
+      </c>
+      <c r="K2">
+        <v>2147483647</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F1" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/web/uploads/test.xlsx
+++ b/web/uploads/test.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="student.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="student (1).csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,43 +19,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>qwerqwerqasdf</t>
-  </si>
-  <si>
-    <t>$2y$13$IP/.zPP9Y6ZxE6ydhpekB.JRpxLwwuDE3SHMN6r2fVl/xx6bril22</t>
-  </si>
-  <si>
-    <t>qwerqwerqwerrr</t>
-  </si>
-  <si>
-    <t>Aaag1dQZToGTkMkJJh215072JF3IWope</t>
-  </si>
-  <si>
-    <t>$2y$13$938GQ7ZkMR7E4K2ObS/doOgedVXNuhAmTfqBu4pNr9HZSxuPecrhK</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>88123g1234</t>
-  </si>
-  <si>
-    <t>220a331234</t>
-  </si>
-  <si>
-    <t>qdd1d24daer@gmail.com</t>
-  </si>
-  <si>
-    <t>l3lttt23wwdff4@GMAIL.COM</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+  <si>
+    <t>BBL7Y4VRi1c-DGhge_zy3zxfg2e6czxm</t>
+  </si>
+  <si>
+    <t>220a496</t>
+  </si>
+  <si>
+    <t>220a497</t>
+  </si>
+  <si>
+    <t>220a498</t>
+  </si>
+  <si>
+    <t>220a499</t>
+  </si>
+  <si>
+    <t>220a500</t>
+  </si>
+  <si>
+    <t>220a501</t>
+  </si>
+  <si>
+    <t>toefssfen1@gmail.com</t>
+  </si>
+  <si>
+    <t>toefssfen2@gmail.com</t>
+  </si>
+  <si>
+    <t>toefssfen3@gmail.com</t>
+  </si>
+  <si>
+    <t>t2oefssfen1@gmail.com</t>
+  </si>
+  <si>
+    <t>t1oefssfen2@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -67,6 +73,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,16 +103,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="21"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="22">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -428,87 +482,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A7" sqref="A7:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1">
+      <c r="D2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1">
-        <v>10</v>
-      </c>
-      <c r="I1">
-        <v>10</v>
-      </c>
-      <c r="J1">
-        <v>123412</v>
-      </c>
-      <c r="K1">
-        <v>1234444</v>
+      <c r="D4">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="2:11">
-      <c r="B2" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2">
+      <c r="D6">
         <v>20</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="J2">
-        <v>2147483647</v>
-      </c>
-      <c r="K2">
-        <v>2147483647</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F1" r:id="rId2"/>
+    <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5" display="toefssfen2@gmail.com"/>
+    <hyperlink ref="C6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/web/uploads/test.xlsx
+++ b/web/uploads/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="student (1).csv" sheetId="1" r:id="rId1"/>
@@ -19,49 +19,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>BBL7Y4VRi1c-DGhge_zy3zxfg2e6czxm</t>
   </si>
   <si>
-    <t>220a496</t>
-  </si>
-  <si>
-    <t>220a497</t>
-  </si>
-  <si>
-    <t>220a498</t>
-  </si>
-  <si>
-    <t>220a499</t>
-  </si>
-  <si>
-    <t>220a500</t>
-  </si>
-  <si>
-    <t>220a501</t>
-  </si>
-  <si>
-    <t>toefssfen1@gmail.com</t>
-  </si>
-  <si>
-    <t>toefssfen2@gmail.com</t>
-  </si>
-  <si>
-    <t>toefssfen3@gmail.com</t>
-  </si>
-  <si>
-    <t>t2oefssfen1@gmail.com</t>
-  </si>
-  <si>
-    <t>t1oefssfen2@gmail.com</t>
+    <t>220a538</t>
+  </si>
+  <si>
+    <t>220a539</t>
+  </si>
+  <si>
+    <t>220a540</t>
+  </si>
+  <si>
+    <t>220a541</t>
+  </si>
+  <si>
+    <t>220a542</t>
+  </si>
+  <si>
+    <t>wit3@yopmail.com22</t>
+  </si>
+  <si>
+    <t>wit3@yopmail.com23</t>
+  </si>
+  <si>
+    <t>wit3@yopmail.com24</t>
+  </si>
+  <si>
+    <t>wit3@yopmail.com25</t>
+  </si>
+  <si>
+    <t>wit3@yopmail.com26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,31 +109,34 @@
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="21"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="21"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -482,106 +489,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E21"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1">
+      <c r="D2" s="2">
         <v>10</v>
       </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
+      <c r="D3" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
+      <c r="D4" s="2">
+        <v>30</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
-    <hyperlink ref="C5" r:id="rId5" display="toefssfen2@gmail.com"/>
-    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C1:C5" r:id="rId1" display="wit3@yopmail.com1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
